--- a/School_Details_filled_with_sections_final.xlsx
+++ b/School_Details_filled_with_sections_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HeyMathReports\Final files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9AE092-82D6-48C1-A4C9-2F2FEE8C0A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7933553-7A67-4C2D-8BE7-C19E420AB254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>SchoolName</t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>PSBB ALL</t>
+  </si>
+  <si>
+    <t>MGA School Kenya</t>
+  </si>
+  <si>
+    <t>MGA Kenya</t>
+  </si>
+  <si>
+    <t>kenyamoe1</t>
+  </si>
+  <si>
+    <t>{01A0=Grade 1 , 02A0=Grade 2, 03A0=Grade 3, 04A0=Grade 4, 05A0=Grade 5, 06A0=Grade 6, 07A0=Grade 7, 08A0=Grade 8, 09A0=Grade 9, 10A0=Grade 10, 11A0=Grade 11, 12A0=Grade 12,}</t>
   </si>
 </sst>
 </file>
@@ -872,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,6 +1379,26 @@
         <v>109</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/School_Details_filled_with_sections_final.xlsx
+++ b/School_Details_filled_with_sections_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HeyMathReports\Final files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7933553-7A67-4C2D-8BE7-C19E420AB254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81508809-43EA-442A-AC8B-A1392B70F7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
   <si>
     <t>SchoolName</t>
   </si>
@@ -521,6 +521,20 @@
   </si>
   <si>
     <t>{01A0=Grade 1 , 02A0=Grade 2, 03A0=Grade 3, 04A0=Grade 4, 05A0=Grade 5, 06A0=Grade 6, 07A0=Grade 7, 08A0=Grade 8, 09A0=Grade 9, 10A0=Grade 10, 11A0=Grade 11, 12A0=Grade 12,}</t>
+  </si>
+  <si>
+    <t>06: 06A0 (06A0)(Grade 6)
+07: 07A0 (07A0)(Grade 7)
+08: 08A0 (08A0)(Grade 8)
+09: 09A0 (09A0)(Grade 9)
+10: 10A0 (10A0)(Grade 10)
+11: 11A0 (11A0)(Grade 10)
+12: 12A0 (12A0)(Grade 10)
+Grade 1: 01A0 (Grade 1)
+Grade 2: 02A0 (Grade 2)
+Grade 3: 03A0 (Grade 3)
+Grade 4: 04A0 (Grade 4)
+Grade 5: 05A0 (Grade 5)</t>
   </si>
 </sst>
 </file>
@@ -886,14 +900,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1396,6 +1411,9 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" t="s">
         <v>116</v>
       </c>
     </row>
